--- a/MOMENTUM! 2024-C/可视化需求/1.2 V/马尔科夫终值状态.xlsx
+++ b/MOMENTUM! 2024-C/可视化需求/1.2 V/马尔科夫终值状态.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15175\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15175\Desktop\MCM-ICM-Learning\MOMENTUM! 2024-C\可视化需求\1.2 V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96B1A18F-9B2A-4432-B6FC-9D42DA5F2E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478B5B10-F3FB-405A-8753-DD9C3F471126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5770" yWindow="1250" windowWidth="19200" windowHeight="11170" xr2:uid="{9C727C0C-B177-4879-8F01-B5E5AF086FC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9C727C0C-B177-4879-8F01-B5E5AF086FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>0,1</t>
   </si>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED161331-52C2-4691-BD3C-5F32780E249E}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="N18" sqref="N18:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -795,6 +795,302 @@
         <v>13.1</v>
       </c>
     </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3/A2</f>
+        <v>0.47626841243862522</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:AF4" si="0">B3/B2</f>
+        <v>0.37888198757763969</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.15492957746478875</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.4390243902439029E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.37093275488069416</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.28176795580110492</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.29577464788732399</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2.4390243902439029E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.31972789115646255</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.15708812260536395</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.10891089108910892</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.30394431554524359</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>4.3824701195219126E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.23588039867109634</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0.29078014184397161</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0.62566844919786102</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0.93377483443708609</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0.69018932874354566</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0.86710963455149503</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0.70645792563600784</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>0.96563573883161513</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0.75069252077562332</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>0.76539589442815248</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>0.59276018099547501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>(A4+(1-Q4))/2</f>
+        <v>0.42529998162038207</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:P5" si="1">(B4+(1-R4))/2</f>
+        <v>0.2225535765702768</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>7.7464788732394374E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1.2195121951219514E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.34037171306857428</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.20732916062480494</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.147887323943662</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1.2195121951219514E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.30663498276022738</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>9.5726191886874409E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>5.4455445544554462E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.27662589738481014</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>2.1912350597609563E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.23524225212147193</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0.3490099804242483</v>
+      </c>
+    </row>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0.42529998162038207</v>
+      </c>
+      <c r="G19">
+        <v>0.2225535765702768</v>
+      </c>
+      <c r="H19">
+        <v>7.7464788732394374E-2</v>
+      </c>
+      <c r="I19">
+        <v>1.2195121951219514E-2</v>
+      </c>
+      <c r="J19">
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K19">
+        <v>0.34037171306857428</v>
+      </c>
+      <c r="L19">
+        <v>0.20732916062480494</v>
+      </c>
+      <c r="M19">
+        <v>0.147887323943662</v>
+      </c>
+      <c r="N19">
+        <v>1.2195121951219514E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.30663498276022738</v>
+      </c>
+      <c r="P19">
+        <v>9.5726191886874409E-2</v>
+      </c>
+      <c r="Q19">
+        <v>5.4455445544554462E-2</v>
+      </c>
+      <c r="R19">
+        <v>0.27662589738481014</v>
+      </c>
+      <c r="S19">
+        <v>2.1912350597609563E-2</v>
+      </c>
+      <c r="T19">
+        <v>0.23524225212147193</v>
+      </c>
+      <c r="U19">
+        <v>0.3490099804242483</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MOMENTUM! 2024-C/可视化需求/1.2 V/马尔科夫终值状态.xlsx
+++ b/MOMENTUM! 2024-C/可视化需求/1.2 V/马尔科夫终值状态.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15175\Desktop\MCM-ICM-Learning\MOMENTUM! 2024-C\可视化需求\1.2 V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478B5B10-F3FB-405A-8753-DD9C3F471126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878F0928-A22F-452D-8F0C-51683C78E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9C727C0C-B177-4879-8F01-B5E5AF086FC8}"/>
+    <workbookView minimized="1" xWindow="9250" yWindow="2880" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{9C727C0C-B177-4879-8F01-B5E5AF086FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,6 +137,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,8 +185,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED161331-52C2-4691-BD3C-5F32780E249E}">
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:U19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -991,104 +1007,321 @@
         <v>0.3490099804242483</v>
       </c>
     </row>
-    <row r="18" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF1904A-2AC9-44C0-BCF1-1C1A20BBEE65}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="A5:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="I18" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="J18" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="K18" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="L18" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="M18" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="N18" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="O18" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="P18" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="R18" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="S18" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="T18" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="U18" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="F19">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0.42529998162038207</v>
       </c>
-      <c r="G19">
+      <c r="B2">
         <v>0.2225535765702768</v>
       </c>
-      <c r="H19">
+      <c r="C2">
         <v>7.7464788732394374E-2</v>
       </c>
-      <c r="I19">
+      <c r="D2">
         <v>1.2195121951219514E-2</v>
       </c>
-      <c r="J19">
+      <c r="E2">
         <v>1.6129032258064516E-2</v>
       </c>
-      <c r="K19">
+      <c r="F2">
         <v>0.34037171306857428</v>
       </c>
-      <c r="L19">
+      <c r="G2">
         <v>0.20732916062480494</v>
       </c>
-      <c r="M19">
+      <c r="H2">
         <v>0.147887323943662</v>
       </c>
-      <c r="N19">
+      <c r="I2">
         <v>1.2195121951219514E-2</v>
       </c>
-      <c r="O19">
+      <c r="J2">
         <v>0.30663498276022738</v>
       </c>
-      <c r="P19">
+      <c r="K2">
         <v>9.5726191886874409E-2</v>
       </c>
-      <c r="Q19">
+      <c r="L2">
         <v>5.4455445544554462E-2</v>
       </c>
-      <c r="R19">
+      <c r="M2">
         <v>0.27662589738481014</v>
       </c>
-      <c r="S19">
+      <c r="N2">
         <v>2.1912350597609563E-2</v>
       </c>
-      <c r="T19">
+      <c r="O2">
         <v>0.23524225212147193</v>
       </c>
-      <c r="U19">
+      <c r="P2">
         <v>0.3490099804242483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <f>1-B7</f>
+        <v>0.57470001837961793</v>
+      </c>
+      <c r="D6" s="1">
+        <f>1-B7</f>
+        <v>0.57470001837961793</v>
+      </c>
+      <c r="E6" s="1">
+        <f>1-B9</f>
+        <v>0.92253521126760563</v>
+      </c>
+      <c r="F6" s="1">
+        <f>1-B10</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1-B11</f>
+        <v>0.99387096774193551</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.42529998162038207</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1">
+        <f>1-C8</f>
+        <v>0.65962828693142572</v>
+      </c>
+      <c r="E7" s="1">
+        <f>1-C9</f>
+        <v>0.79267083937519511</v>
+      </c>
+      <c r="F7" s="1">
+        <f>1-C11</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1-C11</f>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.2225535765702768</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.34037171306857428</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <f>1-D9</f>
+        <v>0.69336501723977262</v>
+      </c>
+      <c r="F8" s="1">
+        <f>1-D10</f>
+        <v>0.90427380811312563</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1-D11</f>
+        <v>0.9455445544554455</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.7464788732394374E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.20732916062480494</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.30663498276022738</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="1">
+        <f>1-E10</f>
+        <v>0.72337410261518986</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1-E11</f>
+        <v>0.97808764940239046</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.2195121951219514E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.147887323943662</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.5726191886874409E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.27662589738481014</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1-F11</f>
+        <v>0.76475774787852813</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.1290322580644999E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.2195121951219514E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.4455445544554462E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.1912350597609563E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.23524225212147193</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="1">
+        <f>1-G12</f>
+        <v>0.65099001957575164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1">
+        <v>0.3490099804242483</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
